--- a/Normalization1/ejercicio1NormalizacionAndresGonzalez.xlsx
+++ b/Normalization1/ejercicio1NormalizacionAndresGonzalez.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Archivos 2021\Universidad\Segundo semestre\Bases de datos I\Laboratorios\TareaNormalizacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Archivos 2021\Universidad\Segundo semestre\Bases de datos I\Laboratorios\Normalization1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3494A08-3F23-4B3C-AE39-A88A18211862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C038D818-20CA-49F6-9D34-E71B90040035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{983D7632-6C78-4D21-902E-04BA188C2F13}"/>
   </bookViews>
@@ -253,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -261,11 +261,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -276,10 +291,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3F1110-2017-4570-8EC9-2A7A5BCDFA37}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="71" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="77" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +670,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>2301</v>
       </c>
       <c r="B3" s="1">
@@ -681,7 +705,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>2301</v>
       </c>
       <c r="B4" s="1">
@@ -719,7 +743,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>2301</v>
       </c>
       <c r="B5" s="1">
@@ -781,7 +805,7 @@
       <c r="I6" s="3">
         <v>5</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="11" t="s">
         <v>37</v>
       </c>
     </row>
@@ -813,7 +837,7 @@
       <c r="I7" s="3">
         <v>65</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -863,144 +887,144 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="14">
         <v>2301</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="14">
         <v>101</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="15">
         <v>40597</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="6">
+      <c r="G14" s="17">
         <v>2301</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="14">
         <f>F3</f>
         <v>3786</v>
       </c>
-      <c r="I14" s="8" t="str">
+      <c r="I14" s="14" t="str">
         <f>G3</f>
         <v>Red</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="13">
         <f>H3</f>
         <v>3</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="16">
         <f>I3</f>
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="14">
         <v>2302</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="14">
         <v>107</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="15">
         <v>40599</v>
       </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="6">
+      <c r="G15" s="17">
         <v>2301</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="18">
         <f t="shared" ref="H15:H19" si="0">F4</f>
         <v>4011</v>
       </c>
-      <c r="I15" s="2" t="str">
+      <c r="I15" s="18" t="str">
         <f t="shared" ref="I15:I19" si="1">G4</f>
         <v>Raqueta</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="13">
         <f t="shared" ref="J15:J19" si="2">H4</f>
         <v>6</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="16">
         <f t="shared" ref="K15:K19" si="3">I4</f>
         <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="14">
         <v>2303</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="14">
         <v>110</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="15">
         <v>40601</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="6">
+      <c r="G16" s="17">
         <v>2301</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="14">
         <f t="shared" si="0"/>
         <v>9132</v>
       </c>
-      <c r="I16" s="8" t="str">
+      <c r="I16" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Paq-3</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="13">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="16">
         <f t="shared" si="3"/>
         <v>4.75</v>
       </c>
@@ -1008,22 +1032,22 @@
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17">
+      <c r="G17" s="13">
         <v>2302</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="14">
         <f t="shared" si="0"/>
         <v>5794</v>
       </c>
-      <c r="I17" s="8" t="str">
+      <c r="I17" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Paq-6</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="13">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="16">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -1032,43 +1056,43 @@
       <c r="A18" s="7"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18">
+      <c r="G18" s="13">
         <v>2303</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="18">
         <f t="shared" si="0"/>
         <v>4011</v>
       </c>
-      <c r="I18" s="2" t="str">
+      <c r="I18" s="18" t="str">
         <f t="shared" si="1"/>
         <v>Raqueta</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="13">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="16">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G19">
+      <c r="G19" s="13">
         <v>2303</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="14">
         <f t="shared" si="0"/>
         <v>3141</v>
       </c>
-      <c r="I19" s="8" t="str">
+      <c r="I19" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Funda</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="13">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="16">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -1097,194 +1121,194 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="14">
         <v>2301</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="19">
         <v>101</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="15">
         <v>40597</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="13">
         <v>3789</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="20">
         <v>35</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="13">
         <v>2301</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="13">
         <v>3786</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="14">
         <v>2302</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="19">
         <v>107</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="15">
         <v>40599</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="13">
         <v>4011</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="20">
         <v>65</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="13">
         <v>2301</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="13">
         <v>4011</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="14">
         <v>2303</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="19">
         <v>110</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="15">
         <v>40601</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="13">
         <v>9132</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="20">
         <v>4.75</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="13">
         <v>2301</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="13">
         <v>9132</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="13">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G28">
+      <c r="G28" s="13">
         <v>5794</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="20">
         <v>5</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="13">
         <v>2302</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="13">
         <v>5794</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G29">
+      <c r="G29" s="13">
         <v>3141</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="20">
         <v>10</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="13">
         <v>2303</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="13">
         <v>4011</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I30" s="3"/>
-      <c r="K30">
+      <c r="K30" s="13">
         <v>2303</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="13">
         <v>3141</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="13">
         <v>2</v>
       </c>
     </row>
@@ -1320,206 +1344,206 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="M33" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O33" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="21">
         <v>101</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="14">
         <v>2301</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="14">
         <v>101</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="15">
         <v>40597</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="13">
         <v>3789</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="20">
         <v>35</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="13">
         <v>2301</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="13">
         <v>3786</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="21">
         <v>107</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="14">
         <v>2302</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="14">
         <v>107</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="15">
         <v>40599</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="13">
         <v>4011</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="20">
         <v>65</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="13">
         <v>2301</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="13">
         <v>4011</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="21">
         <v>110</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="14">
         <v>2303</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="14">
         <v>110</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="15">
         <v>40601</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="13">
         <v>9132</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="20">
         <v>4.75</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="13">
         <v>2301</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="13">
         <v>9132</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="13">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I37">
+      <c r="I37" s="13">
         <v>5794</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="20">
         <v>5</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="13">
         <v>2302</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="13">
         <v>5794</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I38">
+      <c r="I38" s="13">
         <v>3141</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="20">
         <v>10</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="13">
         <v>2303</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="13">
         <v>4011</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K39" s="8"/>
-      <c r="M39">
+      <c r="M39" s="13">
         <v>2303</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="13">
         <v>3141</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="13">
         <v>2</v>
       </c>
     </row>
